--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.42009833333334</v>
+        <v>53.37999233333334</v>
       </c>
       <c r="H2">
-        <v>124.260295</v>
+        <v>160.139977</v>
       </c>
       <c r="I2">
-        <v>0.731333508387612</v>
+        <v>0.9228671193042202</v>
       </c>
       <c r="J2">
-        <v>0.7313335083876121</v>
+        <v>0.9228671193042202</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.490547666666667</v>
+        <v>13.49059133333333</v>
       </c>
       <c r="N2">
-        <v>19.471643</v>
+        <v>40.471774</v>
       </c>
       <c r="O2">
-        <v>0.8021666724616637</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="P2">
-        <v>0.8021666724616636</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="Q2">
-        <v>268.8391225905206</v>
+        <v>720.1276619454666</v>
       </c>
       <c r="R2">
-        <v>2419.552103314685</v>
+        <v>6481.148957509199</v>
       </c>
       <c r="S2">
-        <v>0.586651366883005</v>
+        <v>0.8225422737935643</v>
       </c>
       <c r="T2">
-        <v>0.586651366883005</v>
+        <v>0.8225422737935643</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.42009833333334</v>
+        <v>53.37999233333334</v>
       </c>
       <c r="H3">
-        <v>124.260295</v>
+        <v>160.139977</v>
       </c>
       <c r="I3">
-        <v>0.731333508387612</v>
+        <v>0.9228671193042202</v>
       </c>
       <c r="J3">
-        <v>0.7313335083876121</v>
+        <v>0.9228671193042202</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,30 +620,30 @@
         <v>1.600723</v>
       </c>
       <c r="N3">
-        <v>4.802168999999999</v>
+        <v>4.802169</v>
       </c>
       <c r="O3">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="P3">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="Q3">
-        <v>66.30210406442832</v>
+        <v>85.44658146779035</v>
       </c>
       <c r="R3">
-        <v>596.7189365798549</v>
+        <v>769.019233210113</v>
       </c>
       <c r="S3">
-        <v>0.1446821415046071</v>
+        <v>0.09759856359152842</v>
       </c>
       <c r="T3">
-        <v>0.1446821415046071</v>
+        <v>0.09759856359152842</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>53.37999233333334</v>
+      </c>
+      <c r="H4">
+        <v>160.139977</v>
+      </c>
+      <c r="I4">
+        <v>0.9228671193042202</v>
+      </c>
+      <c r="J4">
+        <v>0.9228671193042202</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.1042846666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.312854</v>
-      </c>
-      <c r="I4">
-        <v>0.001841301064294898</v>
-      </c>
-      <c r="J4">
-        <v>0.001841301064294898</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>6.490547666666667</v>
+        <v>0.02804266666666666</v>
       </c>
       <c r="N4">
-        <v>19.471643</v>
+        <v>0.08412799999999999</v>
       </c>
       <c r="O4">
-        <v>0.8021666724616637</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="P4">
-        <v>0.8021666724616636</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="Q4">
-        <v>0.6768645999024445</v>
+        <v>1.496917331672889</v>
       </c>
       <c r="R4">
-        <v>6.091781399122</v>
+        <v>13.472255985056</v>
       </c>
       <c r="S4">
-        <v>0.001477030347745558</v>
+        <v>0.001709804873137139</v>
       </c>
       <c r="T4">
-        <v>0.001477030347745558</v>
+        <v>0.001709804873137139</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>53.37999233333334</v>
+      </c>
+      <c r="H5">
+        <v>160.139977</v>
+      </c>
+      <c r="I5">
+        <v>0.9228671193042202</v>
+      </c>
+      <c r="J5">
+        <v>0.9228671193042202</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.1042846666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.312854</v>
-      </c>
-      <c r="I5">
-        <v>0.001841301064294898</v>
-      </c>
-      <c r="J5">
-        <v>0.001841301064294898</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>1.600723</v>
+        <v>0.01667133333333333</v>
       </c>
       <c r="N5">
-        <v>4.802168999999999</v>
+        <v>0.050014</v>
       </c>
       <c r="O5">
-        <v>0.1978333275383364</v>
+        <v>0.001101433808538722</v>
       </c>
       <c r="P5">
-        <v>0.1978333275383364</v>
+        <v>0.001101433808538722</v>
       </c>
       <c r="Q5">
-        <v>0.1669308644806667</v>
+        <v>0.8899156455197779</v>
       </c>
       <c r="R5">
-        <v>1.502377780326</v>
+        <v>8.009240809678001</v>
       </c>
       <c r="S5">
-        <v>0.0003642707165493399</v>
+        <v>0.001016477045990406</v>
       </c>
       <c r="T5">
-        <v>0.0003642707165493399</v>
+        <v>0.001016477045990406</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,22 +779,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3184536666666667</v>
+        <v>0.1042846666666667</v>
       </c>
       <c r="H6">
-        <v>0.955361</v>
+        <v>0.312854</v>
       </c>
       <c r="I6">
-        <v>0.005622773645489071</v>
+        <v>0.001802939373113576</v>
       </c>
       <c r="J6">
-        <v>0.005622773645489071</v>
+        <v>0.001802939373113576</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.490547666666667</v>
+        <v>13.49059133333333</v>
       </c>
       <c r="N6">
-        <v>19.471643</v>
+        <v>40.471774</v>
       </c>
       <c r="O6">
-        <v>0.8021666724616637</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="P6">
-        <v>0.8021666724616636</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="Q6">
-        <v>2.066938703124778</v>
+        <v>1.406861820332889</v>
       </c>
       <c r="R6">
-        <v>18.602448328123</v>
+        <v>12.661756382996</v>
       </c>
       <c r="S6">
-        <v>0.004510401625207106</v>
+        <v>0.001606941910110376</v>
       </c>
       <c r="T6">
-        <v>0.004510401625207106</v>
+        <v>0.001606941910110376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,22 +841,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3184536666666667</v>
+        <v>0.1042846666666667</v>
       </c>
       <c r="H7">
-        <v>0.955361</v>
+        <v>0.312854</v>
       </c>
       <c r="I7">
-        <v>0.005622773645489071</v>
+        <v>0.001802939373113576</v>
       </c>
       <c r="J7">
-        <v>0.005622773645489071</v>
+        <v>0.001802939373113576</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,30 +868,30 @@
         <v>1.600723</v>
       </c>
       <c r="N7">
-        <v>4.802168999999999</v>
+        <v>4.802169</v>
       </c>
       <c r="O7">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="P7">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="Q7">
-        <v>0.5097561086676666</v>
+        <v>0.1669308644806667</v>
       </c>
       <c r="R7">
-        <v>4.587804978008999</v>
+        <v>1.502377780326</v>
       </c>
       <c r="S7">
-        <v>0.001112372020281965</v>
+        <v>0.0001906713213394806</v>
       </c>
       <c r="T7">
-        <v>0.001112372020281965</v>
+        <v>0.0001906713213394806</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>14.793565</v>
+        <v>0.1042846666666667</v>
       </c>
       <c r="H8">
-        <v>44.380695</v>
+        <v>0.312854</v>
       </c>
       <c r="I8">
-        <v>0.2612024169026039</v>
+        <v>0.001802939373113576</v>
       </c>
       <c r="J8">
-        <v>0.2612024169026039</v>
+        <v>0.001802939373113576</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.490547666666667</v>
+        <v>0.02804266666666666</v>
       </c>
       <c r="N8">
-        <v>19.471643</v>
+        <v>0.08412799999999999</v>
       </c>
       <c r="O8">
-        <v>0.8021666724616637</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="P8">
-        <v>0.8021666724616636</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="Q8">
-        <v>96.01833879243166</v>
+        <v>0.002924420145777778</v>
       </c>
       <c r="R8">
-        <v>864.165049131885</v>
+        <v>0.026319781312</v>
       </c>
       <c r="S8">
-        <v>0.209527873605706</v>
+        <v>3.340323283426264E-06</v>
       </c>
       <c r="T8">
-        <v>0.209527873605706</v>
+        <v>3.340323283426265E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1042846666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.312854</v>
+      </c>
+      <c r="I9">
+        <v>0.001802939373113576</v>
+      </c>
+      <c r="J9">
+        <v>0.001802939373113576</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.050014</v>
+      </c>
+      <c r="O9">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="P9">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="Q9">
+        <v>0.001738564439555556</v>
+      </c>
+      <c r="R9">
+        <v>0.015647079956</v>
+      </c>
+      <c r="S9">
+        <v>1.985818380292901E-06</v>
+      </c>
+      <c r="T9">
+        <v>1.985818380292902E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4198543333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.259563</v>
+      </c>
+      <c r="I10">
+        <v>0.007258707657939662</v>
+      </c>
+      <c r="J10">
+        <v>0.007258707657939662</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.49059133333333</v>
+      </c>
+      <c r="N10">
+        <v>40.471774</v>
+      </c>
+      <c r="O10">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="P10">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="Q10">
+        <v>5.664083230529111</v>
+      </c>
+      <c r="R10">
+        <v>50.976749074762</v>
+      </c>
+      <c r="S10">
+        <v>0.006469613855422516</v>
+      </c>
+      <c r="T10">
+        <v>0.006469613855422516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>14.793565</v>
-      </c>
-      <c r="H9">
-        <v>44.380695</v>
-      </c>
-      <c r="I9">
-        <v>0.2612024169026039</v>
-      </c>
-      <c r="J9">
-        <v>0.2612024169026039</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4198543333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.259563</v>
+      </c>
+      <c r="I11">
+        <v>0.007258707657939662</v>
+      </c>
+      <c r="J11">
+        <v>0.007258707657939662</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>1.600723</v>
       </c>
-      <c r="N9">
-        <v>4.802168999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.1978333275383364</v>
-      </c>
-      <c r="P9">
-        <v>0.1978333275383364</v>
-      </c>
-      <c r="Q9">
-        <v>23.680399747495</v>
-      </c>
-      <c r="R9">
-        <v>213.1235977274549</v>
-      </c>
-      <c r="S9">
-        <v>0.05167454329689793</v>
-      </c>
-      <c r="T9">
-        <v>0.05167454329689793</v>
+      <c r="N11">
+        <v>4.802169</v>
+      </c>
+      <c r="O11">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="P11">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="Q11">
+        <v>0.6720704880163334</v>
+      </c>
+      <c r="R11">
+        <v>6.048634392147</v>
+      </c>
+      <c r="S11">
+        <v>0.0007676505383351984</v>
+      </c>
+      <c r="T11">
+        <v>0.0007676505383351984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4198543333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.259563</v>
+      </c>
+      <c r="I12">
+        <v>0.007258707657939662</v>
+      </c>
+      <c r="J12">
+        <v>0.007258707657939662</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02804266666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.08412799999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="P12">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="Q12">
+        <v>0.01177383511822222</v>
+      </c>
+      <c r="R12">
+        <v>0.105964516064</v>
+      </c>
+      <c r="S12">
+        <v>1.344827816119415E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.344827816119415E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4198543333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.259563</v>
+      </c>
+      <c r="I13">
+        <v>0.007258707657939662</v>
+      </c>
+      <c r="J13">
+        <v>0.007258707657939662</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.050014</v>
+      </c>
+      <c r="O13">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="P13">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="Q13">
+        <v>0.006999531542444444</v>
+      </c>
+      <c r="R13">
+        <v>0.062995783882</v>
+      </c>
+      <c r="S13">
+        <v>7.994986020753666E-06</v>
+      </c>
+      <c r="T13">
+        <v>7.994986020753666E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.937340333333333</v>
+      </c>
+      <c r="H14">
+        <v>11.812021</v>
+      </c>
+      <c r="I14">
+        <v>0.06807123366472666</v>
+      </c>
+      <c r="J14">
+        <v>0.06807123366472666</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.49059133333333</v>
+      </c>
+      <c r="N14">
+        <v>40.471774</v>
+      </c>
+      <c r="O14">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="P14">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="Q14">
+        <v>53.11704937725045</v>
+      </c>
+      <c r="R14">
+        <v>478.053444395254</v>
+      </c>
+      <c r="S14">
+        <v>0.06067121273182979</v>
+      </c>
+      <c r="T14">
+        <v>0.06067121273182979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.937340333333333</v>
+      </c>
+      <c r="H15">
+        <v>11.812021</v>
+      </c>
+      <c r="I15">
+        <v>0.06807123366472666</v>
+      </c>
+      <c r="J15">
+        <v>0.06807123366472666</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.600723</v>
+      </c>
+      <c r="N15">
+        <v>4.802169</v>
+      </c>
+      <c r="O15">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="P15">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="Q15">
+        <v>6.302591230394333</v>
+      </c>
+      <c r="R15">
+        <v>56.723321073549</v>
+      </c>
+      <c r="S15">
+        <v>0.007198928739155301</v>
+      </c>
+      <c r="T15">
+        <v>0.007198928739155301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.937340333333333</v>
+      </c>
+      <c r="H16">
+        <v>11.812021</v>
+      </c>
+      <c r="I16">
+        <v>0.06807123366472666</v>
+      </c>
+      <c r="J16">
+        <v>0.06807123366472666</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02804266666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.08412799999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="P16">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="Q16">
+        <v>0.1104135225208889</v>
+      </c>
+      <c r="R16">
+        <v>0.9937217026879999</v>
+      </c>
+      <c r="S16">
+        <v>0.0001261162355943027</v>
+      </c>
+      <c r="T16">
+        <v>0.0001261162355943027</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.937340333333333</v>
+      </c>
+      <c r="H17">
+        <v>11.812021</v>
+      </c>
+      <c r="I17">
+        <v>0.06807123366472666</v>
+      </c>
+      <c r="J17">
+        <v>0.06807123366472666</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.050014</v>
+      </c>
+      <c r="O17">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="P17">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="Q17">
+        <v>0.06564071314377777</v>
+      </c>
+      <c r="R17">
+        <v>0.590766418294</v>
+      </c>
+      <c r="S17">
+        <v>7.497595814726912E-05</v>
+      </c>
+      <c r="T17">
+        <v>7.497595814726913E-05</v>
       </c>
     </row>
   </sheetData>
